--- a/check list.xlsx
+++ b/check list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>Соответствует ли цвет</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -640,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,7 +656,7 @@
     <col min="4" max="4" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +667,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -674,8 +677,11 @@
       <c r="D2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -686,7 +692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -697,7 +703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -708,7 +714,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -719,7 +725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -730,7 +736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -741,7 +747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -752,7 +758,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -763,7 +769,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -774,7 +780,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45">
+    <row r="12" spans="1:5" ht="45">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -785,7 +791,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -796,7 +802,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -807,7 +813,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -818,7 +824,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>15</v>
       </c>
